--- a/run_log/run_results/train_history/training_history_run_18.xlsx
+++ b/run_log/run_results/train_history/training_history_run_18.xlsx
@@ -395,702 +395,702 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
-        <v>0.04843045398592949</v>
+        <v>0.08460788428783417</v>
       </c>
       <c r="B2">
-        <v>0.9858983755111694</v>
+        <v>0.9854296445846558</v>
       </c>
       <c r="C2">
-        <v>0.006669924128800631</v>
+        <v>0.03740128874778748</v>
       </c>
       <c r="D2">
-        <v>0.9987410306930542</v>
+        <v>0.9965887665748596</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
-        <v>0.007433522492647171</v>
+        <v>0.0220959484577179</v>
       </c>
       <c r="B3">
-        <v>0.998379111289978</v>
+        <v>0.9977836608886719</v>
       </c>
       <c r="C3">
-        <v>0.002472539432346821</v>
+        <v>0.08866985142230988</v>
       </c>
       <c r="D3">
-        <v>0.9991187453269958</v>
+        <v>0.9739894270896912</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
-        <v>0.003494736272841692</v>
+        <v>0.01343870814889669</v>
       </c>
       <c r="B4">
-        <v>0.9990274906158447</v>
+        <v>0.9980504512786865</v>
       </c>
       <c r="C4">
-        <v>0.0004204343713354319</v>
+        <v>0.01149542070925236</v>
       </c>
       <c r="D4">
-        <v>0.9998741149902344</v>
+        <v>0.9965887665748596</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
-        <v>0.001552756875753403</v>
+        <v>0.009787436574697495</v>
       </c>
       <c r="B5">
-        <v>0.9996150135993958</v>
+        <v>0.9979273080825806</v>
       </c>
       <c r="C5">
-        <v>9.038199641508982E-05</v>
+        <v>0.005867223720997572</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>0.9988060593605042</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
-        <v>0.001035210210829973</v>
+        <v>0.00767605984583497</v>
       </c>
       <c r="B6">
-        <v>0.9997974038124084</v>
+        <v>0.9982146024703979</v>
       </c>
       <c r="C6">
-        <v>0.0002321236970601603</v>
+        <v>0.004041307140141726</v>
       </c>
       <c r="D6">
-        <v>0.9997482299804688</v>
+        <v>0.9989766478538513</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7">
-        <v>0.001260405988432467</v>
+        <v>0.007612740155309439</v>
       </c>
       <c r="B7">
-        <v>0.9996960759162903</v>
+        <v>0.998153030872345</v>
       </c>
       <c r="C7">
-        <v>0.0006284627015702426</v>
+        <v>0.003407995449379086</v>
       </c>
       <c r="D7">
-        <v>0.9998741149902344</v>
+        <v>0.9989766478538513</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8">
-        <v>0.001387264346703887</v>
+        <v>0.006386157125234604</v>
       </c>
       <c r="B8">
-        <v>0.9997771382331848</v>
+        <v>0.9982761740684509</v>
       </c>
       <c r="C8">
-        <v>3.317844675621018E-05</v>
+        <v>0.01221900805830956</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>0.9974415898323059</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9">
-        <v>0.0006114284624345601</v>
+        <v>0.006233484949916601</v>
       </c>
       <c r="B9">
-        <v>0.9997974038124084</v>
+        <v>0.9982351660728455</v>
       </c>
       <c r="C9">
-        <v>9.330501598014962E-06</v>
+        <v>0.002858529333025217</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>0.9989766478538513</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10">
-        <v>0.0005657000001519918</v>
+        <v>0.006530633196234703</v>
       </c>
       <c r="B10">
-        <v>0.9997974038124084</v>
+        <v>0.9981735944747925</v>
       </c>
       <c r="C10">
-        <v>4.221184326524963E-07</v>
+        <v>0.002585718641057611</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>0.9990619421005249</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11">
-        <v>0.0002948635956272483</v>
+        <v>0.006057605147361755</v>
       </c>
       <c r="B11">
-        <v>0.9999189376831055</v>
+        <v>0.998091459274292</v>
       </c>
       <c r="C11">
-        <v>6.632359600189375E-06</v>
+        <v>0.003212876617908478</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>0.9988913536071777</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12">
-        <v>0.0006679513608105481</v>
+        <v>0.005151795689016581</v>
       </c>
       <c r="B12">
-        <v>0.9998379349708557</v>
+        <v>0.9984608888626099</v>
       </c>
       <c r="C12">
-        <v>9.718361297927913E-07</v>
+        <v>0.002426594961434603</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>0.9990619421005249</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13">
-        <v>0.0002371958980802447</v>
+        <v>0.006611099932342768</v>
       </c>
       <c r="B13">
-        <v>0.9999189376831055</v>
+        <v>0.9979683756828308</v>
       </c>
       <c r="C13">
-        <v>1.498317669756943E-05</v>
+        <v>0.002884282730519772</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>0.9990619421005249</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14">
-        <v>0.0003691782476380467</v>
+        <v>0.005288407206535339</v>
       </c>
       <c r="B14">
-        <v>0.9999392032623291</v>
+        <v>0.9983172416687012</v>
       </c>
       <c r="C14">
-        <v>6.520967321677063E-09</v>
+        <v>0.00370407453738153</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>0.9988913536071777</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15">
-        <v>0.0006051672389730811</v>
+        <v>0.005093896761536598</v>
       </c>
       <c r="B15">
-        <v>0.9997974038124084</v>
+        <v>0.9982556700706482</v>
       </c>
       <c r="C15">
-        <v>1.671815752501971E-08</v>
+        <v>0.006957088597118855</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>0.9990619421005249</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16">
-        <v>6.510580715257674E-05</v>
+        <v>0.006080134306102991</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>0.998153030872345</v>
       </c>
       <c r="C16">
-        <v>7.505376231620176E-08</v>
+        <v>0.0027964161708951</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>0.9990619421005249</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17">
-        <v>0.0008813553722575307</v>
+        <v>0.005751732736825943</v>
       </c>
       <c r="B17">
-        <v>0.9998379349708557</v>
+        <v>0.9981735944747925</v>
       </c>
       <c r="C17">
-        <v>5.563323156820843E-06</v>
+        <v>0.002354457508772612</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>0.9990619421005249</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18">
-        <v>0.000498709618113935</v>
+        <v>0.005125947296619415</v>
       </c>
       <c r="B18">
-        <v>0.9998784065246582</v>
+        <v>0.9982146024703979</v>
       </c>
       <c r="C18">
-        <v>6.336680513641113E-08</v>
+        <v>0.004322472959756851</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>0.9988060593605042</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19">
-        <v>2.314187440788373E-05</v>
+        <v>0.005334658548235893</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>0.9982966780662537</v>
       </c>
       <c r="C19">
-        <v>2.356264072744807E-09</v>
+        <v>0.001891778665594757</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>0.9990619421005249</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20">
-        <v>2.22213475353783E-05</v>
+        <v>0.005699350032955408</v>
       </c>
       <c r="B20">
-        <v>0.9999797344207764</v>
+        <v>0.9982556700706482</v>
       </c>
       <c r="C20">
-        <v>7.503921928275759E-09</v>
+        <v>0.003095085266977549</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>0.9988913536071777</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21">
-        <v>0.0003497929719742388</v>
+        <v>0.004392130766063929</v>
       </c>
       <c r="B21">
-        <v>0.9999189376831055</v>
+        <v>0.9984198212623596</v>
       </c>
       <c r="C21">
-        <v>8.531958251012384E-09</v>
+        <v>0.00190135498996824</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>0.9990619421005249</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22">
-        <v>0.000582564331125468</v>
+        <v>0.004470640327781439</v>
       </c>
       <c r="B22">
-        <v>0.9998986721038818</v>
+        <v>0.9984813928604126</v>
       </c>
       <c r="C22">
-        <v>4.365310601883721E-08</v>
+        <v>0.001983948284760118</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>0.9991471767425537</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23">
-        <v>0.0002038360253209248</v>
+        <v>0.005200617946684361</v>
       </c>
       <c r="B23">
-        <v>0.9999392032623291</v>
+        <v>0.9982146024703979</v>
       </c>
       <c r="C23">
-        <v>2.407881083854591E-06</v>
+        <v>0.00475058751180768</v>
       </c>
       <c r="D23">
-        <v>1</v>
+        <v>0.9988913536071777</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24">
-        <v>0.0004225023731123656</v>
+        <v>0.005193050019443035</v>
       </c>
       <c r="B24">
-        <v>0.9998986721038818</v>
+        <v>0.9982556700706482</v>
       </c>
       <c r="C24">
-        <v>0.006167042069137096</v>
+        <v>0.002951384056359529</v>
       </c>
       <c r="D24">
-        <v>0.9986151456832886</v>
+        <v>0.9988913536071777</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25">
-        <v>8.125699241645634E-05</v>
+        <v>0.004938268568366766</v>
       </c>
       <c r="B25">
-        <v>0.9999594688415527</v>
+        <v>0.9985018968582153</v>
       </c>
       <c r="C25">
-        <v>3.534962189633006E-08</v>
+        <v>0.002054528566077352</v>
       </c>
       <c r="D25">
-        <v>1</v>
+        <v>0.9991471767425537</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26">
-        <v>3.565544466255233E-05</v>
+        <v>0.004541105590760708</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>0.9983788132667542</v>
       </c>
       <c r="C26">
-        <v>1.275684780033259E-09</v>
+        <v>0.002350390655919909</v>
       </c>
       <c r="D26">
-        <v>1</v>
+        <v>0.9996588826179504</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27">
-        <v>0.0008852880564518273</v>
+        <v>0.004520933609455824</v>
       </c>
       <c r="B27">
-        <v>0.9998582005500793</v>
+        <v>0.9985429644584656</v>
       </c>
       <c r="C27">
-        <v>2.686401767704183E-09</v>
+        <v>0.002998686861246824</v>
       </c>
       <c r="D27">
-        <v>1</v>
+        <v>0.999744176864624</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28">
-        <v>0.0007856460288167</v>
+        <v>0.00454885745421052</v>
       </c>
       <c r="B28">
-        <v>0.9998176693916321</v>
+        <v>0.9987276792526245</v>
       </c>
       <c r="C28">
-        <v>1.718245812298846E-08</v>
+        <v>0.002621467225253582</v>
       </c>
       <c r="D28">
-        <v>1</v>
+        <v>0.9992324709892273</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29">
-        <v>6.387385383277433E-06</v>
+        <v>0.005501982755959034</v>
       </c>
       <c r="B29">
-        <v>1</v>
+        <v>0.9985224604606628</v>
       </c>
       <c r="C29">
-        <v>7.451236072597567E-09</v>
+        <v>0.0072540701366961</v>
       </c>
       <c r="D29">
-        <v>1</v>
+        <v>0.9991471767425537</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30">
-        <v>1.634546606510412E-05</v>
+        <v>0.005488427355885506</v>
       </c>
       <c r="B30">
-        <v>1</v>
+        <v>0.9985634684562683</v>
       </c>
       <c r="C30">
-        <v>4.044573120864925E-09</v>
+        <v>0.002440281677991152</v>
       </c>
       <c r="D30">
-        <v>1</v>
+        <v>0.9993177652359009</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31">
-        <v>0.0001730878138914704</v>
+        <v>0.004104959778487682</v>
       </c>
       <c r="B31">
-        <v>0.9999189376831055</v>
+        <v>0.9988507628440857</v>
       </c>
       <c r="C31">
-        <v>6.828666521130344E-10</v>
+        <v>0.00535019813105464</v>
       </c>
       <c r="D31">
-        <v>1</v>
+        <v>0.999744176864624</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32">
-        <v>0.0001170000468846411</v>
+        <v>0.004681806545704603</v>
       </c>
       <c r="B32">
-        <v>0.9999594688415527</v>
+        <v>0.9986661076545715</v>
       </c>
       <c r="C32">
-        <v>1.425768114682313E-10</v>
+        <v>0.005765160080045462</v>
       </c>
       <c r="D32">
-        <v>1</v>
+        <v>0.999744176864624</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33">
-        <v>0.0008269275422208011</v>
+        <v>0.004253255669027567</v>
       </c>
       <c r="B33">
-        <v>0.9998176693916321</v>
+        <v>0.9987481832504272</v>
       </c>
       <c r="C33">
-        <v>1.425768392238069E-10</v>
+        <v>0.007325727492570877</v>
       </c>
       <c r="D33">
-        <v>1</v>
+        <v>0.999744176864624</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34">
-        <v>0.0003785656590480357</v>
+        <v>0.00492444634437561</v>
       </c>
       <c r="B34">
-        <v>0.9999392032623291</v>
+        <v>0.9985840320587158</v>
       </c>
       <c r="C34">
-        <v>3.001618398279504E-11</v>
+        <v>0.002373769646510482</v>
       </c>
       <c r="D34">
-        <v>1</v>
+        <v>0.9998294115066528</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35">
-        <v>7.862464553909376E-05</v>
+        <v>0.004176911432296038</v>
       </c>
       <c r="B35">
-        <v>0.9999594688415527</v>
+        <v>0.9988097548484802</v>
       </c>
       <c r="C35">
-        <v>2.626411033102016E-10</v>
+        <v>0.004936868790537119</v>
       </c>
       <c r="D35">
-        <v>1</v>
+        <v>0.9990619421005249</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36">
-        <v>0.000132038418087177</v>
+        <v>0.00499038165435195</v>
       </c>
       <c r="B36">
-        <v>0.9999392032623291</v>
+        <v>0.9986866116523743</v>
       </c>
       <c r="C36">
-        <v>2.476332472411968E-10</v>
+        <v>0.003082116600126028</v>
       </c>
       <c r="D36">
-        <v>1</v>
+        <v>0.9999147057533264</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37">
-        <v>0.0005528718465939164</v>
+        <v>0.004368199501186609</v>
       </c>
       <c r="B37">
-        <v>0.9998784065246582</v>
+        <v>0.99876868724823</v>
       </c>
       <c r="C37">
-        <v>5.477949205356936E-10</v>
+        <v>0.003653128165751696</v>
       </c>
       <c r="D37">
-        <v>1</v>
+        <v>0.999744176864624</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38">
-        <v>5.375738692237064E-05</v>
+        <v>0.004816306289285421</v>
       </c>
       <c r="B38">
-        <v>0.9999797344207764</v>
+        <v>0.9987481832504272</v>
       </c>
       <c r="C38">
-        <v>6.678596564668737E-10</v>
+        <v>0.004005470313131809</v>
       </c>
       <c r="D38">
-        <v>1</v>
+        <v>0.999744176864624</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39">
-        <v>0.0001265722821699455</v>
+        <v>0.003927084617316723</v>
       </c>
       <c r="B39">
-        <v>0.9999189376831055</v>
+        <v>0.9989123344421387</v>
       </c>
       <c r="C39">
-        <v>1.725929954510264E-10</v>
+        <v>0.0178611408919096</v>
       </c>
       <c r="D39">
-        <v>1</v>
+        <v>0.999744176864624</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40">
-        <v>1.217501448991243E-05</v>
+        <v>0.004363788291811943</v>
       </c>
       <c r="B40">
-        <v>1</v>
+        <v>0.9989534020423889</v>
       </c>
       <c r="C40">
-        <v>1.5008093726121E-11</v>
+        <v>0.003531167982146144</v>
       </c>
       <c r="D40">
-        <v>1</v>
+        <v>0.9998294115066528</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41">
-        <v>4.070338036399335E-06</v>
+        <v>0.004773812368512154</v>
       </c>
       <c r="B41">
-        <v>1</v>
+        <v>0.9988097548484802</v>
       </c>
       <c r="C41">
-        <v>1.5008093726121E-11</v>
+        <v>0.004849810153245926</v>
       </c>
       <c r="D41">
-        <v>1</v>
+        <v>0.9998294115066528</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42">
-        <v>0.0002917899983003736</v>
+        <v>0.008088907226920128</v>
       </c>
       <c r="B42">
-        <v>0.9998784065246582</v>
+        <v>0.9986866116523743</v>
       </c>
       <c r="C42">
-        <v>1.575848757040532E-10</v>
+        <v>0.002972200280055404</v>
       </c>
       <c r="D42">
-        <v>1</v>
+        <v>0.9999147057533264</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43">
-        <v>0.0001586698199389502</v>
+        <v>0.00439781229943037</v>
       </c>
       <c r="B43">
-        <v>0.9999392032623291</v>
+        <v>0.9987276792526245</v>
       </c>
       <c r="C43">
-        <v>9.004853113170341E-11</v>
+        <v>0.002961742924526334</v>
       </c>
       <c r="D43">
-        <v>1</v>
+        <v>0.9999147057533264</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44">
-        <v>3.260189714637818E-06</v>
+        <v>0.004253683611750603</v>
       </c>
       <c r="B44">
-        <v>1</v>
+        <v>0.9989123344421387</v>
       </c>
       <c r="C44">
-        <v>7.504046863060498E-12</v>
+        <v>0.003003776771947742</v>
       </c>
       <c r="D44">
-        <v>1</v>
+        <v>0.9999147057533264</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45">
-        <v>0.0006633258308283985</v>
+        <v>0.004112687893211842</v>
       </c>
       <c r="B45">
-        <v>0.9999189376831055</v>
+        <v>0.9989534020423889</v>
       </c>
       <c r="C45">
-        <v>3.301776074771112E-10</v>
+        <v>0.003385127754881978</v>
       </c>
       <c r="D45">
-        <v>1</v>
+        <v>0.9999147057533264</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46">
-        <v>0.0001104443072108552</v>
+        <v>0.004885356873273849</v>
       </c>
       <c r="B46">
-        <v>0.9999797344207764</v>
+        <v>0.9987481832504272</v>
       </c>
       <c r="C46">
-        <v>0</v>
+        <v>0.007544227875769138</v>
       </c>
       <c r="D46">
-        <v>1</v>
+        <v>0.9996588826179504</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47">
-        <v>7.866379746701568E-06</v>
+        <v>0.005001910962164402</v>
       </c>
       <c r="B47">
-        <v>1</v>
+        <v>0.9985840320587158</v>
       </c>
       <c r="C47">
-        <v>0</v>
+        <v>0.00247120251879096</v>
       </c>
       <c r="D47">
-        <v>1</v>
+        <v>0.9999147057533264</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48">
-        <v>0.000249059492489323</v>
+        <v>0.004486942198127508</v>
       </c>
       <c r="B48">
-        <v>0.9998986721038818</v>
+        <v>0.9988507628440857</v>
       </c>
       <c r="C48">
-        <v>0</v>
+        <v>0.003325406461954117</v>
       </c>
       <c r="D48">
-        <v>1</v>
+        <v>0.999744176864624</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49">
-        <v>5.462305489345454E-05</v>
+        <v>0.005073931068181992</v>
       </c>
       <c r="B49">
-        <v>0.9999797344207764</v>
+        <v>0.998645544052124</v>
       </c>
       <c r="C49">
-        <v>5.244309519980561E-08</v>
+        <v>0.002453385619446635</v>
       </c>
       <c r="D49">
-        <v>1</v>
+        <v>0.9998294115066528</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50">
-        <v>7.034673672023928E-06</v>
+        <v>0.005058792885392904</v>
       </c>
       <c r="B50">
-        <v>1</v>
+        <v>0.9986250400543213</v>
       </c>
       <c r="C50">
-        <v>0</v>
+        <v>0.002011256758123636</v>
       </c>
       <c r="D50">
-        <v>1</v>
+        <v>0.9998294115066528</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51">
-        <v>4.440772045199992E-06</v>
+        <v>0.004878455772995949</v>
       </c>
       <c r="B51">
-        <v>1</v>
+        <v>0.9986045360565186</v>
       </c>
       <c r="C51">
-        <v>0</v>
+        <v>0.002493765437975526</v>
       </c>
       <c r="D51">
-        <v>1</v>
+        <v>0.9999147057533264</v>
       </c>
     </row>
   </sheetData>

--- a/run_log/run_results/train_history/training_history_run_18.xlsx
+++ b/run_log/run_results/train_history/training_history_run_18.xlsx
@@ -395,702 +395,702 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
-        <v>0.08460788428783417</v>
+        <v>0.06398557126522064</v>
       </c>
       <c r="B2">
-        <v>0.9854296445846558</v>
+        <v>0.982882022857666</v>
       </c>
       <c r="C2">
-        <v>0.03740128874778748</v>
+        <v>0.0196644626557827</v>
       </c>
       <c r="D2">
-        <v>0.9965887665748596</v>
+        <v>0.996960461139679</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
-        <v>0.0220959484577179</v>
+        <v>0.01011102832853794</v>
       </c>
       <c r="B3">
-        <v>0.9977836608886719</v>
+        <v>0.9984486103057861</v>
       </c>
       <c r="C3">
-        <v>0.08866985142230988</v>
+        <v>0.0102210994809866</v>
       </c>
       <c r="D3">
-        <v>0.9739894270896912</v>
+        <v>0.9976118206977844</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
-        <v>0.01343870814889669</v>
+        <v>0.004525858443230391</v>
       </c>
       <c r="B4">
-        <v>0.9980504512786865</v>
+        <v>0.9988717436790466</v>
       </c>
       <c r="C4">
-        <v>0.01149542070925236</v>
+        <v>0.00237832753919065</v>
       </c>
       <c r="D4">
-        <v>0.9965887665748596</v>
+        <v>0.9989144802093506</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
-        <v>0.009787436574697495</v>
+        <v>0.002398055279627442</v>
       </c>
       <c r="B5">
-        <v>0.9979273080825806</v>
+        <v>0.9994182586669922</v>
       </c>
       <c r="C5">
-        <v>0.005867223720997572</v>
+        <v>0.001493193209171295</v>
       </c>
       <c r="D5">
-        <v>0.9988060593605042</v>
+        <v>0.9991315603256226</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
-        <v>0.00767605984583497</v>
+        <v>0.002402569865807891</v>
       </c>
       <c r="B6">
-        <v>0.9982146024703979</v>
+        <v>0.9995239973068237</v>
       </c>
       <c r="C6">
-        <v>0.004041307140141726</v>
+        <v>0.0004406488442327827</v>
       </c>
       <c r="D6">
-        <v>0.9989766478538513</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7">
-        <v>0.007612740155309439</v>
+        <v>0.001922777388244867</v>
       </c>
       <c r="B7">
-        <v>0.998153030872345</v>
+        <v>0.9995063543319702</v>
       </c>
       <c r="C7">
-        <v>0.003407995449379086</v>
+        <v>0.0001149797026300803</v>
       </c>
       <c r="D7">
-        <v>0.9989766478538513</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8">
-        <v>0.006386157125234604</v>
+        <v>0.001402237918227911</v>
       </c>
       <c r="B8">
-        <v>0.9982761740684509</v>
+        <v>0.9996474385261536</v>
       </c>
       <c r="C8">
-        <v>0.01221900805830956</v>
+        <v>0.0001106618583435193</v>
       </c>
       <c r="D8">
-        <v>0.9974415898323059</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9">
-        <v>0.006233484949916601</v>
+        <v>0.001023262972012162</v>
       </c>
       <c r="B9">
-        <v>0.9982351660728455</v>
+        <v>0.9997355341911316</v>
       </c>
       <c r="C9">
-        <v>0.002858529333025217</v>
+        <v>7.18216979294084E-05</v>
       </c>
       <c r="D9">
-        <v>0.9989766478538513</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10">
-        <v>0.006530633196234703</v>
+        <v>0.0009293231996707618</v>
       </c>
       <c r="B10">
-        <v>0.9981735944747925</v>
+        <v>0.9997884631156921</v>
       </c>
       <c r="C10">
-        <v>0.002585718641057611</v>
+        <v>0.0005154672544449568</v>
       </c>
       <c r="D10">
-        <v>0.9990619421005249</v>
+        <v>0.999782919883728</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11">
-        <v>0.006057605147361755</v>
+        <v>0.0004536720807664096</v>
       </c>
       <c r="B11">
-        <v>0.998091459274292</v>
+        <v>0.9998942017555237</v>
       </c>
       <c r="C11">
-        <v>0.003212876617908478</v>
+        <v>4.631537740351632E-05</v>
       </c>
       <c r="D11">
-        <v>0.9988913536071777</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12">
-        <v>0.005151795689016581</v>
+        <v>0.000903626496437937</v>
       </c>
       <c r="B12">
-        <v>0.9984608888626099</v>
+        <v>0.9998236894607544</v>
       </c>
       <c r="C12">
-        <v>0.002426594961434603</v>
+        <v>7.343941979343072E-05</v>
       </c>
       <c r="D12">
-        <v>0.9990619421005249</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13">
-        <v>0.006611099932342768</v>
+        <v>0.001016956521198153</v>
       </c>
       <c r="B13">
-        <v>0.9979683756828308</v>
+        <v>0.9997884631156921</v>
       </c>
       <c r="C13">
-        <v>0.002884282730519772</v>
+        <v>4.404792707646266E-05</v>
       </c>
       <c r="D13">
-        <v>0.9990619421005249</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14">
-        <v>0.005288407206535339</v>
+        <v>0.001087073935195804</v>
       </c>
       <c r="B14">
-        <v>0.9983172416687012</v>
+        <v>0.9997884631156921</v>
       </c>
       <c r="C14">
-        <v>0.00370407453738153</v>
+        <v>0.0002127236075466499</v>
       </c>
       <c r="D14">
-        <v>0.9988913536071777</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15">
-        <v>0.005093896761536598</v>
+        <v>0.0003716057108249515</v>
       </c>
       <c r="B15">
-        <v>0.9982556700706482</v>
+        <v>0.9999294877052307</v>
       </c>
       <c r="C15">
-        <v>0.006957088597118855</v>
+        <v>2.430202403047588E-05</v>
       </c>
       <c r="D15">
-        <v>0.9990619421005249</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16">
-        <v>0.006080134306102991</v>
+        <v>0.0004443767538759857</v>
       </c>
       <c r="B16">
-        <v>0.998153030872345</v>
+        <v>0.9999118447303772</v>
       </c>
       <c r="C16">
-        <v>0.0027964161708951</v>
+        <v>0.002566620940342546</v>
       </c>
       <c r="D16">
-        <v>0.9990619421005249</v>
+        <v>0.9995657801628113</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17">
-        <v>0.005751732736825943</v>
+        <v>0.0004621722910087556</v>
       </c>
       <c r="B17">
-        <v>0.9981735944747925</v>
+        <v>0.9998766183853149</v>
       </c>
       <c r="C17">
-        <v>0.002354457508772612</v>
+        <v>8.838957796797331E-07</v>
       </c>
       <c r="D17">
-        <v>0.9990619421005249</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18">
-        <v>0.005125947296619415</v>
+        <v>0.0001379724126309156</v>
       </c>
       <c r="B18">
-        <v>0.9982146024703979</v>
+        <v>0.999964714050293</v>
       </c>
       <c r="C18">
-        <v>0.004322472959756851</v>
+        <v>6.284655569288589E-07</v>
       </c>
       <c r="D18">
-        <v>0.9988060593605042</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19">
-        <v>0.005334658548235893</v>
+        <v>0.0007585492567159235</v>
       </c>
       <c r="B19">
-        <v>0.9982966780662537</v>
+        <v>0.9998413324356079</v>
       </c>
       <c r="C19">
-        <v>0.001891778665594757</v>
+        <v>1.520953719591489E-05</v>
       </c>
       <c r="D19">
-        <v>0.9990619421005249</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20">
-        <v>0.005699350032955408</v>
+        <v>0.0004452612774912268</v>
       </c>
       <c r="B20">
-        <v>0.9982556700706482</v>
+        <v>0.9999118447303772</v>
       </c>
       <c r="C20">
-        <v>0.003095085266977549</v>
+        <v>0.0002602652239147574</v>
       </c>
       <c r="D20">
-        <v>0.9988913536071777</v>
+        <v>0.999782919883728</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21">
-        <v>0.004392130766063929</v>
+        <v>0.0005967464530840516</v>
       </c>
       <c r="B21">
-        <v>0.9984198212623596</v>
+        <v>0.9998942017555237</v>
       </c>
       <c r="C21">
-        <v>0.00190135498996824</v>
+        <v>5.659768476107274E-07</v>
       </c>
       <c r="D21">
-        <v>0.9990619421005249</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22">
-        <v>0.004470640327781439</v>
+        <v>0.0007819700986146927</v>
       </c>
       <c r="B22">
-        <v>0.9984813928604126</v>
+        <v>0.9998589754104614</v>
       </c>
       <c r="C22">
-        <v>0.001983948284760118</v>
+        <v>5.221238825470209E-05</v>
       </c>
       <c r="D22">
-        <v>0.9991471767425537</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23">
-        <v>0.005200617946684361</v>
+        <v>0.0001364952477160841</v>
       </c>
       <c r="B23">
-        <v>0.9982146024703979</v>
+        <v>0.9999471306800842</v>
       </c>
       <c r="C23">
-        <v>0.00475058751180768</v>
+        <v>0.000112151654320769</v>
       </c>
       <c r="D23">
-        <v>0.9988913536071777</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24">
-        <v>0.005193050019443035</v>
+        <v>0.0003777554084081203</v>
       </c>
       <c r="B24">
-        <v>0.9982556700706482</v>
+        <v>0.9999294877052307</v>
       </c>
       <c r="C24">
-        <v>0.002951384056359529</v>
+        <v>6.930375775482389E-07</v>
       </c>
       <c r="D24">
-        <v>0.9988913536071777</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25">
-        <v>0.004938268568366766</v>
+        <v>0.001085414434783161</v>
       </c>
       <c r="B25">
-        <v>0.9985018968582153</v>
+        <v>0.9997708201408386</v>
       </c>
       <c r="C25">
-        <v>0.002054528566077352</v>
+        <v>0.0001733792305458337</v>
       </c>
       <c r="D25">
-        <v>0.9991471767425537</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26">
-        <v>0.004541105590760708</v>
+        <v>0.000124375888844952</v>
       </c>
       <c r="B26">
-        <v>0.9983788132667542</v>
+        <v>0.9999471306800842</v>
       </c>
       <c r="C26">
-        <v>0.002350390655919909</v>
+        <v>1.046317720465595E-06</v>
       </c>
       <c r="D26">
-        <v>0.9996588826179504</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27">
-        <v>0.004520933609455824</v>
+        <v>6.842263246653602E-05</v>
       </c>
       <c r="B27">
-        <v>0.9985429644584656</v>
+        <v>0.9999823570251465</v>
       </c>
       <c r="C27">
-        <v>0.002998686861246824</v>
+        <v>0.0003234297910239547</v>
       </c>
       <c r="D27">
-        <v>0.999744176864624</v>
+        <v>0.999782919883728</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28">
-        <v>0.00454885745421052</v>
+        <v>0.001097306725569069</v>
       </c>
       <c r="B28">
-        <v>0.9987276792526245</v>
+        <v>0.9998413324356079</v>
       </c>
       <c r="C28">
-        <v>0.002621467225253582</v>
+        <v>3.128557864329196E-06</v>
       </c>
       <c r="D28">
-        <v>0.9992324709892273</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29">
-        <v>0.005501982755959034</v>
+        <v>0.0002468824677634984</v>
       </c>
       <c r="B29">
-        <v>0.9985224604606628</v>
+        <v>0.9999294877052307</v>
       </c>
       <c r="C29">
-        <v>0.0072540701366961</v>
+        <v>2.649328791903827E-07</v>
       </c>
       <c r="D29">
-        <v>0.9991471767425537</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30">
-        <v>0.005488427355885506</v>
+        <v>0.0001321008458035067</v>
       </c>
       <c r="B30">
-        <v>0.9985634684562683</v>
+        <v>0.9999471306800842</v>
       </c>
       <c r="C30">
-        <v>0.002440281677991152</v>
+        <v>3.52391111846373E-07</v>
       </c>
       <c r="D30">
-        <v>0.9993177652359009</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31">
-        <v>0.004104959778487682</v>
+        <v>0.0007811344694346189</v>
       </c>
       <c r="B31">
-        <v>0.9988507628440857</v>
+        <v>0.9998236894607544</v>
       </c>
       <c r="C31">
-        <v>0.00535019813105464</v>
+        <v>3.14151265001783E-07</v>
       </c>
       <c r="D31">
-        <v>0.999744176864624</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32">
-        <v>0.004681806545704603</v>
+        <v>0.0005374005413614213</v>
       </c>
       <c r="B32">
-        <v>0.9986661076545715</v>
+        <v>0.9998589754104614</v>
       </c>
       <c r="C32">
-        <v>0.005765160080045462</v>
+        <v>3.507638666633284E-06</v>
       </c>
       <c r="D32">
-        <v>0.999744176864624</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33">
-        <v>0.004253255669027567</v>
+        <v>0.0001660581328906119</v>
       </c>
       <c r="B33">
-        <v>0.9987481832504272</v>
+        <v>0.9999471306800842</v>
       </c>
       <c r="C33">
-        <v>0.007325727492570877</v>
+        <v>1.364840045425808E-06</v>
       </c>
       <c r="D33">
-        <v>0.999744176864624</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34">
-        <v>0.00492444634437561</v>
+        <v>0.0001811858237488195</v>
       </c>
       <c r="B34">
-        <v>0.9985840320587158</v>
+        <v>0.9999823570251465</v>
       </c>
       <c r="C34">
-        <v>0.002373769646510482</v>
+        <v>1.127746998008661E-07</v>
       </c>
       <c r="D34">
-        <v>0.9998294115066528</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35">
-        <v>0.004176911432296038</v>
+        <v>5.568853157456033E-05</v>
       </c>
       <c r="B35">
-        <v>0.9988097548484802</v>
+        <v>0.999964714050293</v>
       </c>
       <c r="C35">
-        <v>0.004936868790537119</v>
+        <v>2.738958073678077E-07</v>
       </c>
       <c r="D35">
-        <v>0.9990619421005249</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36">
-        <v>0.00499038165435195</v>
+        <v>4.675958189181983E-05</v>
       </c>
       <c r="B36">
-        <v>0.9986866116523743</v>
+        <v>0.999964714050293</v>
       </c>
       <c r="C36">
-        <v>0.003082116600126028</v>
+        <v>2.743415050687759E-09</v>
       </c>
       <c r="D36">
-        <v>0.9999147057533264</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37">
-        <v>0.004368199501186609</v>
+        <v>0.001124259433709085</v>
       </c>
       <c r="B37">
-        <v>0.99876868724823</v>
+        <v>0.9998942017555237</v>
       </c>
       <c r="C37">
-        <v>0.003653128165751696</v>
+        <v>0.0001055254251696169</v>
       </c>
       <c r="D37">
-        <v>0.999744176864624</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38">
-        <v>0.004816306289285421</v>
+        <v>0.0001433350407751277</v>
       </c>
       <c r="B38">
-        <v>0.9987481832504272</v>
+        <v>0.9999294877052307</v>
       </c>
       <c r="C38">
-        <v>0.004005470313131809</v>
+        <v>5.002899570172303E-07</v>
       </c>
       <c r="D38">
-        <v>0.999744176864624</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39">
-        <v>0.003927084617316723</v>
+        <v>0.0002093774382956326</v>
       </c>
       <c r="B39">
-        <v>0.9989123344421387</v>
+        <v>0.999964714050293</v>
       </c>
       <c r="C39">
-        <v>0.0178611408919096</v>
+        <v>9.576041293257731E-09</v>
       </c>
       <c r="D39">
-        <v>0.999744176864624</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40">
-        <v>0.004363788291811943</v>
+        <v>0.0002415008493699133</v>
       </c>
       <c r="B40">
-        <v>0.9989534020423889</v>
+        <v>0.9999294877052307</v>
       </c>
       <c r="C40">
-        <v>0.003531167982146144</v>
+        <v>4.940908411299461E-07</v>
       </c>
       <c r="D40">
-        <v>0.9998294115066528</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41">
-        <v>0.004773812368512154</v>
+        <v>4.266534597263671E-05</v>
       </c>
       <c r="B41">
-        <v>0.9988097548484802</v>
+        <v>0.9999823570251465</v>
       </c>
       <c r="C41">
-        <v>0.004849810153245926</v>
+        <v>1.291627995669842E-07</v>
       </c>
       <c r="D41">
-        <v>0.9998294115066528</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42">
-        <v>0.008088907226920128</v>
+        <v>0.0001516610936960205</v>
       </c>
       <c r="B42">
-        <v>0.9986866116523743</v>
+        <v>0.999964714050293</v>
       </c>
       <c r="C42">
-        <v>0.002972200280055404</v>
+        <v>8.166973231027441E-08</v>
       </c>
       <c r="D42">
-        <v>0.9999147057533264</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43">
-        <v>0.00439781229943037</v>
+        <v>0.0003442777961026877</v>
       </c>
       <c r="B43">
-        <v>0.9987276792526245</v>
+        <v>0.9999118447303772</v>
       </c>
       <c r="C43">
-        <v>0.002961742924526334</v>
+        <v>2.033769987974665E-06</v>
       </c>
       <c r="D43">
-        <v>0.9999147057533264</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44">
-        <v>0.004253683611750603</v>
+        <v>0.0008760616765357554</v>
       </c>
       <c r="B44">
-        <v>0.9989123344421387</v>
+        <v>0.9998766183853149</v>
       </c>
       <c r="C44">
-        <v>0.003003776771947742</v>
+        <v>6.563233796441637E-07</v>
       </c>
       <c r="D44">
-        <v>0.9999147057533264</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45">
-        <v>0.004112687893211842</v>
+        <v>7.451117562595755E-05</v>
       </c>
       <c r="B45">
-        <v>0.9989534020423889</v>
+        <v>0.999964714050293</v>
       </c>
       <c r="C45">
-        <v>0.003385127754881978</v>
+        <v>8.411382701467573E-09</v>
       </c>
       <c r="D45">
-        <v>0.9999147057533264</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46">
-        <v>0.004885356873273849</v>
+        <v>0.0003570486733224243</v>
       </c>
       <c r="B46">
-        <v>0.9987481832504272</v>
+        <v>0.9999823570251465</v>
       </c>
       <c r="C46">
-        <v>0.007544227875769138</v>
+        <v>1.483272455971019E-07</v>
       </c>
       <c r="D46">
-        <v>0.9996588826179504</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47">
-        <v>0.005001910962164402</v>
+        <v>0.0006082363543100655</v>
       </c>
       <c r="B47">
-        <v>0.9985840320587158</v>
+        <v>0.9998942017555237</v>
       </c>
       <c r="C47">
-        <v>0.00247120251879096</v>
+        <v>0.0001057337940437719</v>
       </c>
       <c r="D47">
-        <v>0.9999147057533264</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48">
-        <v>0.004486942198127508</v>
+        <v>0.0003655508917290717</v>
       </c>
       <c r="B48">
-        <v>0.9988507628440857</v>
+        <v>0.9998766183853149</v>
       </c>
       <c r="C48">
-        <v>0.003325406461954117</v>
+        <v>5.636593769509091E-08</v>
       </c>
       <c r="D48">
-        <v>0.999744176864624</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49">
-        <v>0.005073931068181992</v>
+        <v>4.778323273058049E-05</v>
       </c>
       <c r="B49">
-        <v>0.998645544052124</v>
+        <v>0.9999823570251465</v>
       </c>
       <c r="C49">
-        <v>0.002453385619446635</v>
+        <v>4.603427896654466E-07</v>
       </c>
       <c r="D49">
-        <v>0.9998294115066528</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50">
-        <v>0.005058792885392904</v>
+        <v>3.219924838049337E-05</v>
       </c>
       <c r="B50">
-        <v>0.9986250400543213</v>
+        <v>1</v>
       </c>
       <c r="C50">
-        <v>0.002011256758123636</v>
+        <v>1.164643315121339E-08</v>
       </c>
       <c r="D50">
-        <v>0.9998294115066528</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51">
-        <v>0.004878455772995949</v>
+        <v>1.94378608284751E-05</v>
       </c>
       <c r="B51">
-        <v>0.9986045360565186</v>
+        <v>1</v>
       </c>
       <c r="C51">
-        <v>0.002493765437975526</v>
+        <v>2.823573197474616E-08</v>
       </c>
       <c r="D51">
-        <v>0.9999147057533264</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/run_log/run_results/train_history/training_history_run_18.xlsx
+++ b/run_log/run_results/train_history/training_history_run_18.xlsx
@@ -395,223 +395,223 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
-        <v>0.06398557126522064</v>
+        <v>0.06692121177911758</v>
       </c>
       <c r="B2">
-        <v>0.982882022857666</v>
+        <v>0.9856381416320801</v>
       </c>
       <c r="C2">
-        <v>0.0196644626557827</v>
+        <v>0.006765027996152639</v>
       </c>
       <c r="D2">
-        <v>0.996960461139679</v>
+        <v>0.9990689158439636</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
-        <v>0.01011102832853794</v>
+        <v>0.01193761173635721</v>
       </c>
       <c r="B3">
-        <v>0.9984486103057861</v>
+        <v>0.9977198839187622</v>
       </c>
       <c r="C3">
-        <v>0.0102210994809866</v>
+        <v>0.004301086533814669</v>
       </c>
       <c r="D3">
-        <v>0.9976118206977844</v>
+        <v>0.9991405010223389</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
-        <v>0.004525858443230391</v>
+        <v>0.00746058439835906</v>
       </c>
       <c r="B4">
-        <v>0.9988717436790466</v>
+        <v>0.9982528686523438</v>
       </c>
       <c r="C4">
-        <v>0.00237832753919065</v>
+        <v>0.001642810530029237</v>
       </c>
       <c r="D4">
-        <v>0.9989144802093506</v>
+        <v>0.9992837905883789</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
-        <v>0.002398055279627442</v>
+        <v>0.00375356781296432</v>
       </c>
       <c r="B5">
-        <v>0.9994182586669922</v>
+        <v>0.998637855052948</v>
       </c>
       <c r="C5">
-        <v>0.001493193209171295</v>
+        <v>0.001239861128851771</v>
       </c>
       <c r="D5">
-        <v>0.9991315603256226</v>
+        <v>0.9997851252555847</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
-        <v>0.002402569865807891</v>
+        <v>0.002435752656310797</v>
       </c>
       <c r="B6">
-        <v>0.9995239973068237</v>
+        <v>0.9993188977241516</v>
       </c>
       <c r="C6">
-        <v>0.0004406488442327827</v>
+        <v>0.0008243308984674513</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>0.9997134804725647</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7">
-        <v>0.001922777388244867</v>
+        <v>0.001477956306189299</v>
       </c>
       <c r="B7">
-        <v>0.9995063543319702</v>
+        <v>0.9996446371078491</v>
       </c>
       <c r="C7">
-        <v>0.0001149797026300803</v>
+        <v>0.0008707991801202297</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>0.9997851252555847</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8">
-        <v>0.001402237918227911</v>
+        <v>0.001884446479380131</v>
       </c>
       <c r="B8">
-        <v>0.9996474385261536</v>
+        <v>0.9995262026786804</v>
       </c>
       <c r="C8">
-        <v>0.0001106618583435193</v>
+        <v>0.0006819201516918838</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>0.9997851252555847</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9">
-        <v>0.001023262972012162</v>
+        <v>0.0008426898275502026</v>
       </c>
       <c r="B9">
-        <v>0.9997355341911316</v>
+        <v>0.9998223185539246</v>
       </c>
       <c r="C9">
-        <v>7.18216979294084E-05</v>
+        <v>0.0002715594018809497</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>0.99992835521698</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10">
-        <v>0.0009293231996707618</v>
+        <v>0.0005546758184209466</v>
       </c>
       <c r="B10">
-        <v>0.9997884631156921</v>
+        <v>0.9998815655708313</v>
       </c>
       <c r="C10">
-        <v>0.0005154672544449568</v>
+        <v>6.735308124916628E-05</v>
       </c>
       <c r="D10">
-        <v>0.999782919883728</v>
+        <v>0.99992835521698</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11">
-        <v>0.0004536720807664096</v>
+        <v>0.001589049701578915</v>
       </c>
       <c r="B11">
-        <v>0.9998942017555237</v>
+        <v>0.9994965791702271</v>
       </c>
       <c r="C11">
-        <v>4.631537740351632E-05</v>
+        <v>0.0005091200582683086</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>0.9998567700386047</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12">
-        <v>0.000903626496437937</v>
+        <v>0.001085387193597853</v>
       </c>
       <c r="B12">
-        <v>0.9998236894607544</v>
+        <v>0.9996742606163025</v>
       </c>
       <c r="C12">
-        <v>7.343941979343072E-05</v>
+        <v>0.0004117018543183804</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>0.9998567700386047</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13">
-        <v>0.001016956521198153</v>
+        <v>0.000843483314383775</v>
       </c>
       <c r="B13">
-        <v>0.9997884631156921</v>
+        <v>0.9996742606163025</v>
       </c>
       <c r="C13">
-        <v>4.404792707646266E-05</v>
+        <v>0.0002512461505830288</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>0.99992835521698</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14">
-        <v>0.001087073935195804</v>
+        <v>0.0005470951437018812</v>
       </c>
       <c r="B14">
-        <v>0.9997884631156921</v>
+        <v>0.9998223185539246</v>
       </c>
       <c r="C14">
-        <v>0.0002127236075466499</v>
+        <v>0.0001126685674535111</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>0.99992835521698</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15">
-        <v>0.0003716057108249515</v>
+        <v>0.0005544557934626937</v>
       </c>
       <c r="B15">
-        <v>0.9999294877052307</v>
+        <v>0.9998223185539246</v>
       </c>
       <c r="C15">
-        <v>2.430202403047588E-05</v>
+        <v>0.0001423069334123284</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>0.99992835521698</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16">
-        <v>0.0004443767538759857</v>
+        <v>0.001040547271259129</v>
       </c>
       <c r="B16">
-        <v>0.9999118447303772</v>
+        <v>0.9997631311416626</v>
       </c>
       <c r="C16">
-        <v>0.002566620940342546</v>
+        <v>4.065388566232286E-05</v>
       </c>
       <c r="D16">
-        <v>0.9995657801628113</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17">
-        <v>0.0004621722910087556</v>
+        <v>0.0003343665739521384</v>
       </c>
       <c r="B17">
-        <v>0.9998766183853149</v>
+        <v>0.9998815655708313</v>
       </c>
       <c r="C17">
-        <v>8.838957796797331E-07</v>
+        <v>4.579811502480879E-05</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -619,13 +619,13 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18">
-        <v>0.0001379724126309156</v>
+        <v>0.000751927902456373</v>
       </c>
       <c r="B18">
-        <v>0.999964714050293</v>
+        <v>0.9997631311416626</v>
       </c>
       <c r="C18">
-        <v>6.284655569288589E-07</v>
+        <v>4.693620212492533E-05</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -633,111 +633,111 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19">
-        <v>0.0007585492567159235</v>
+        <v>0.000488954596221447</v>
       </c>
       <c r="B19">
-        <v>0.9998413324356079</v>
+        <v>0.9998815655708313</v>
       </c>
       <c r="C19">
-        <v>1.520953719591489E-05</v>
+        <v>7.639109389856458E-05</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>0.99992835521698</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20">
-        <v>0.0004452612774912268</v>
+        <v>0.001326893456280231</v>
       </c>
       <c r="B20">
-        <v>0.9999118447303772</v>
+        <v>0.9998223185539246</v>
       </c>
       <c r="C20">
-        <v>0.0002602652239147574</v>
+        <v>0.0004605779831763357</v>
       </c>
       <c r="D20">
-        <v>0.999782919883728</v>
+        <v>0.9998567700386047</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21">
-        <v>0.0005967464530840516</v>
+        <v>0.0006992131820879877</v>
       </c>
       <c r="B21">
-        <v>0.9998942017555237</v>
+        <v>0.9997631311416626</v>
       </c>
       <c r="C21">
-        <v>5.659768476107274E-07</v>
+        <v>0.0005651351530104876</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>0.9998567700386047</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22">
-        <v>0.0007819700986146927</v>
+        <v>0.0002352878800593317</v>
       </c>
       <c r="B22">
-        <v>0.9998589754104614</v>
+        <v>0.9999111890792847</v>
       </c>
       <c r="C22">
-        <v>5.221238825470209E-05</v>
+        <v>0.0001679845590842888</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>0.99992835521698</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23">
-        <v>0.0001364952477160841</v>
+        <v>0.000159932766109705</v>
       </c>
       <c r="B23">
-        <v>0.9999471306800842</v>
+        <v>0.9999407529830933</v>
       </c>
       <c r="C23">
-        <v>0.000112151654320769</v>
+        <v>0.0001876299502328038</v>
       </c>
       <c r="D23">
-        <v>1</v>
+        <v>0.99992835521698</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24">
-        <v>0.0003777554084081203</v>
+        <v>4.648940011975355E-05</v>
       </c>
       <c r="B24">
-        <v>0.9999294877052307</v>
+        <v>1</v>
       </c>
       <c r="C24">
-        <v>6.930375775482389E-07</v>
+        <v>0.0002980238059535623</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>0.99992835521698</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25">
-        <v>0.001085414434783161</v>
+        <v>0.0001171449694084004</v>
       </c>
       <c r="B25">
-        <v>0.9997708201408386</v>
+        <v>0.9999703764915466</v>
       </c>
       <c r="C25">
-        <v>0.0001733792305458337</v>
+        <v>0.001571018015965819</v>
       </c>
       <c r="D25">
-        <v>1</v>
+        <v>0.9998567700386047</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26">
-        <v>0.000124375888844952</v>
+        <v>0.0009362092823721468</v>
       </c>
       <c r="B26">
-        <v>0.9999471306800842</v>
+        <v>0.9998519420623779</v>
       </c>
       <c r="C26">
-        <v>1.046317720465595E-06</v>
+        <v>6.185134679981275E-06</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -745,27 +745,27 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27">
-        <v>6.842263246653602E-05</v>
+        <v>0.0003593254077713937</v>
       </c>
       <c r="B27">
-        <v>0.9999823570251465</v>
+        <v>0.9998815655708313</v>
       </c>
       <c r="C27">
-        <v>0.0003234297910239547</v>
+        <v>6.388336714735487E-06</v>
       </c>
       <c r="D27">
-        <v>0.999782919883728</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28">
-        <v>0.001097306725569069</v>
+        <v>6.598445179406554E-05</v>
       </c>
       <c r="B28">
-        <v>0.9998413324356079</v>
+        <v>1</v>
       </c>
       <c r="C28">
-        <v>3.128557864329196E-06</v>
+        <v>3.372182254679501E-05</v>
       </c>
       <c r="D28">
         <v>1</v>
@@ -773,13 +773,13 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29">
-        <v>0.0002468824677634984</v>
+        <v>4.929038914269768E-05</v>
       </c>
       <c r="B29">
-        <v>0.9999294877052307</v>
+        <v>0.9999703764915466</v>
       </c>
       <c r="C29">
-        <v>2.649328791903827E-07</v>
+        <v>8.050939868553542E-06</v>
       </c>
       <c r="D29">
         <v>1</v>
@@ -787,27 +787,27 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30">
-        <v>0.0001321008458035067</v>
+        <v>1.807944863685407E-05</v>
       </c>
       <c r="B30">
-        <v>0.9999471306800842</v>
+        <v>1</v>
       </c>
       <c r="C30">
-        <v>3.52391111846373E-07</v>
+        <v>6.886514893267304E-05</v>
       </c>
       <c r="D30">
-        <v>1</v>
+        <v>0.99992835521698</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31">
-        <v>0.0007811344694346189</v>
+        <v>0.0002705386723391712</v>
       </c>
       <c r="B31">
-        <v>0.9998236894607544</v>
+        <v>0.9998815655708313</v>
       </c>
       <c r="C31">
-        <v>3.14151265001783E-07</v>
+        <v>2.721280338846555E-07</v>
       </c>
       <c r="D31">
         <v>1</v>
@@ -815,13 +815,13 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32">
-        <v>0.0005374005413614213</v>
+        <v>0.000224950781557709</v>
       </c>
       <c r="B32">
-        <v>0.9998589754104614</v>
+        <v>0.9999111890792847</v>
       </c>
       <c r="C32">
-        <v>3.507638666633284E-06</v>
+        <v>4.066272140335059E-06</v>
       </c>
       <c r="D32">
         <v>1</v>
@@ -829,13 +829,13 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33">
-        <v>0.0001660581328906119</v>
+        <v>0.001462705433368683</v>
       </c>
       <c r="B33">
-        <v>0.9999471306800842</v>
+        <v>0.9998223185539246</v>
       </c>
       <c r="C33">
-        <v>1.364840045425808E-06</v>
+        <v>4.417074251250597E-06</v>
       </c>
       <c r="D33">
         <v>1</v>
@@ -843,13 +843,13 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34">
-        <v>0.0001811858237488195</v>
+        <v>0.0001107857897295617</v>
       </c>
       <c r="B34">
-        <v>0.9999823570251465</v>
+        <v>0.9999407529830933</v>
       </c>
       <c r="C34">
-        <v>1.127746998008661E-07</v>
+        <v>1.094548133551143E-05</v>
       </c>
       <c r="D34">
         <v>1</v>
@@ -857,41 +857,41 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35">
-        <v>5.568853157456033E-05</v>
+        <v>0.000382153142709285</v>
       </c>
       <c r="B35">
-        <v>0.999964714050293</v>
+        <v>0.9998815655708313</v>
       </c>
       <c r="C35">
-        <v>2.738958073678077E-07</v>
+        <v>0.0004731800290755928</v>
       </c>
       <c r="D35">
-        <v>1</v>
+        <v>0.9998567700386047</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36">
-        <v>4.675958189181983E-05</v>
+        <v>6.422615115297958E-05</v>
       </c>
       <c r="B36">
-        <v>0.999964714050293</v>
+        <v>0.9999407529830933</v>
       </c>
       <c r="C36">
-        <v>2.743415050687759E-09</v>
+        <v>0.0009791573975235224</v>
       </c>
       <c r="D36">
-        <v>1</v>
+        <v>0.9998567700386047</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37">
-        <v>0.001124259433709085</v>
+        <v>0.001331298612058163</v>
       </c>
       <c r="B37">
-        <v>0.9998942017555237</v>
+        <v>0.9997335076332092</v>
       </c>
       <c r="C37">
-        <v>0.0001055254251696169</v>
+        <v>6.477295301010599E-06</v>
       </c>
       <c r="D37">
         <v>1</v>
@@ -899,13 +899,13 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38">
-        <v>0.0001433350407751277</v>
+        <v>0.0001470191782573238</v>
       </c>
       <c r="B38">
-        <v>0.9999294877052307</v>
+        <v>0.9999407529830933</v>
       </c>
       <c r="C38">
-        <v>5.002899570172303E-07</v>
+        <v>6.450233286159346E-06</v>
       </c>
       <c r="D38">
         <v>1</v>
@@ -913,13 +913,13 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39">
-        <v>0.0002093774382956326</v>
+        <v>9.806954039959237E-06</v>
       </c>
       <c r="B39">
-        <v>0.999964714050293</v>
+        <v>1</v>
       </c>
       <c r="C39">
-        <v>9.576041293257731E-09</v>
+        <v>6.950530405447353E-06</v>
       </c>
       <c r="D39">
         <v>1</v>
@@ -927,41 +927,41 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40">
-        <v>0.0002415008493699133</v>
+        <v>0.0003854723472613841</v>
       </c>
       <c r="B40">
-        <v>0.9999294877052307</v>
+        <v>0.9999407529830933</v>
       </c>
       <c r="C40">
-        <v>4.940908411299461E-07</v>
+        <v>0.0007687984616495669</v>
       </c>
       <c r="D40">
-        <v>1</v>
+        <v>0.9998567700386047</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41">
-        <v>4.266534597263671E-05</v>
+        <v>0.0002586292685009539</v>
       </c>
       <c r="B41">
-        <v>0.9999823570251465</v>
+        <v>0.9998519420623779</v>
       </c>
       <c r="C41">
-        <v>1.291627995669842E-07</v>
+        <v>0.0009060441516339779</v>
       </c>
       <c r="D41">
-        <v>1</v>
+        <v>0.9998567700386047</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42">
-        <v>0.0001516610936960205</v>
+        <v>0.0003291761677246541</v>
       </c>
       <c r="B42">
-        <v>0.999964714050293</v>
+        <v>0.9998519420623779</v>
       </c>
       <c r="C42">
-        <v>8.166973231027441E-08</v>
+        <v>2.678345117601566E-05</v>
       </c>
       <c r="D42">
         <v>1</v>
@@ -969,41 +969,41 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43">
-        <v>0.0003442777961026877</v>
+        <v>2.449284875183366E-05</v>
       </c>
       <c r="B43">
-        <v>0.9999118447303772</v>
+        <v>1</v>
       </c>
       <c r="C43">
-        <v>2.033769987974665E-06</v>
+        <v>0.0005817172932438552</v>
       </c>
       <c r="D43">
-        <v>1</v>
+        <v>0.9998567700386047</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44">
-        <v>0.0008760616765357554</v>
+        <v>0.0008639546576887369</v>
       </c>
       <c r="B44">
-        <v>0.9998766183853149</v>
+        <v>0.9998223185539246</v>
       </c>
       <c r="C44">
-        <v>6.563233796441637E-07</v>
+        <v>0.000195757980691269</v>
       </c>
       <c r="D44">
-        <v>1</v>
+        <v>0.9998567700386047</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45">
-        <v>7.451117562595755E-05</v>
+        <v>0.0002635006094351411</v>
       </c>
       <c r="B45">
-        <v>0.999964714050293</v>
+        <v>0.9999407529830933</v>
       </c>
       <c r="C45">
-        <v>8.411382701467573E-09</v>
+        <v>0.0001219434852828272</v>
       </c>
       <c r="D45">
         <v>1</v>
@@ -1011,69 +1011,69 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46">
-        <v>0.0003570486733224243</v>
+        <v>9.173290891340002E-05</v>
       </c>
       <c r="B46">
-        <v>0.9999823570251465</v>
+        <v>0.9999703764915466</v>
       </c>
       <c r="C46">
-        <v>1.483272455971019E-07</v>
+        <v>0.0005956810782663524</v>
       </c>
       <c r="D46">
-        <v>1</v>
+        <v>0.9998567700386047</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47">
-        <v>0.0006082363543100655</v>
+        <v>0.0002630272065289319</v>
       </c>
       <c r="B47">
-        <v>0.9998942017555237</v>
+        <v>0.9999407529830933</v>
       </c>
       <c r="C47">
-        <v>0.0001057337940437719</v>
+        <v>0.0006144459475763142</v>
       </c>
       <c r="D47">
-        <v>1</v>
+        <v>0.9998567700386047</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48">
-        <v>0.0003655508917290717</v>
+        <v>0.0005530201597139239</v>
       </c>
       <c r="B48">
-        <v>0.9998766183853149</v>
+        <v>0.9998519420623779</v>
       </c>
       <c r="C48">
-        <v>5.636593769509091E-08</v>
+        <v>0.0003765238216146827</v>
       </c>
       <c r="D48">
-        <v>1</v>
+        <v>0.9998567700386047</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49">
-        <v>4.778323273058049E-05</v>
+        <v>4.152861947659403E-05</v>
       </c>
       <c r="B49">
-        <v>0.9999823570251465</v>
+        <v>0.9999703764915466</v>
       </c>
       <c r="C49">
-        <v>4.603427896654466E-07</v>
+        <v>0.0004278490960132331</v>
       </c>
       <c r="D49">
-        <v>1</v>
+        <v>0.9998567700386047</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50">
-        <v>3.219924838049337E-05</v>
+        <v>0.0008439061930403113</v>
       </c>
       <c r="B50">
-        <v>1</v>
+        <v>0.9998815655708313</v>
       </c>
       <c r="C50">
-        <v>1.164643315121339E-08</v>
+        <v>9.676550689619035E-06</v>
       </c>
       <c r="D50">
         <v>1</v>
@@ -1081,16 +1081,16 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51">
-        <v>1.94378608284751E-05</v>
+        <v>1.925290598592255E-05</v>
       </c>
       <c r="B51">
         <v>1</v>
       </c>
       <c r="C51">
-        <v>2.823573197474616E-08</v>
+        <v>0.0002361008519073948</v>
       </c>
       <c r="D51">
-        <v>1</v>
+        <v>0.9998567700386047</v>
       </c>
     </row>
   </sheetData>
